--- a/statistics/HistoricalDistanceData/historical_distance/Q1325863-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q1325863-en.xlsx
@@ -31,90 +31,90 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Electric Daisy: Electric Daisy Carnival, a controversial rave festival, comes to Orlando's Tinker Field.</t>
+  </si>
+  <si>
     <t>2013 Electric Daisy Carnival brought in $278 million to Clark County</t>
   </si>
   <si>
+    <t>EDC Las Vegas Teams Up with Surreal For Once-in-a-Lifetime Giveaways with Kaskade, Zedd, Armin Van Burren and more!</t>
+  </si>
+  <si>
+    <t>From Las Vegas to India - The EDC Story</t>
+  </si>
+  <si>
+    <t>The history of Electric Daisy Carnival</t>
+  </si>
+  <si>
+    <t>Insomniac Announces EDC Mexico Will Debut in 2014</t>
+  </si>
+  <si>
+    <t>Pasquale Rotella talks heat-related EDC date change: 'It wasn’t as comfortable as it needed to be'</t>
+  </si>
+  <si>
+    <t>High winds put Electric Daisy Carnival on hold during second night</t>
+  </si>
+  <si>
     <t>Sundance Film Review: ‘Under the Electric Sky’</t>
   </si>
   <si>
-    <t>High winds put Electric Daisy Carnival on hold during second night</t>
-  </si>
-  <si>
-    <t>Insomniac Announces EDC Mexico Will Debut in 2014</t>
-  </si>
-  <si>
-    <t>The history of Electric Daisy Carnival</t>
-  </si>
-  <si>
-    <t>EDC Las Vegas Teams Up with Surreal For Once-in-a-Lifetime Giveaways with Kaskade, Zedd, Armin Van Burren and more!</t>
-  </si>
-  <si>
-    <t>Electric Daisy: Electric Daisy Carnival, a controversial rave festival, comes to Orlando's Tinker Field.</t>
-  </si>
-  <si>
     <t>EDC NY 2015 Recap: Dance Music’s Biggest Parking Lot Rave</t>
   </si>
   <si>
-    <t>Pasquale Rotella talks heat-related EDC date change: 'It wasn’t as comfortable as it needed to be'</t>
-  </si>
-  <si>
     <t>Music, art, neon: Electric Daisy Carnival is back in Orlando</t>
   </si>
   <si>
-    <t>From Las Vegas to India - The EDC Story</t>
-  </si>
-  <si>
     <t>EDC Sets Record For Largest Stage Ever Assembled In North America</t>
   </si>
   <si>
+    <t>EDC Las Vegas 2021</t>
+  </si>
+  <si>
+    <t>The World of EDC</t>
+  </si>
+  <si>
     <t>WMC · Winter Music Conference</t>
   </si>
   <si>
     <t>EDC Orlando Returns to Florida November 2017</t>
   </si>
   <si>
-    <t>EDC Las Vegas 2021</t>
-  </si>
-  <si>
     <t>Official EDMLounge EDC New York Preview</t>
   </si>
   <si>
-    <t>The World of EDC</t>
+    <t>2011-05-26T00:00:00UTC</t>
   </si>
   <si>
     <t>2013-12-04T20:29:00UTC</t>
   </si>
   <si>
+    <t>2018-04-25T19:31:00UTC</t>
+  </si>
+  <si>
+    <t>2016-11-10T17:28:30UTC</t>
+  </si>
+  <si>
+    <t>2015-06-08T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2013-12-13T00:52:55UTC</t>
+  </si>
+  <si>
+    <t>2017-09-28T22:25:00UTC</t>
+  </si>
+  <si>
+    <t>2012-06-10T03:19:00UTC</t>
+  </si>
+  <si>
     <t>2014-01-22T17:35:16UTC</t>
   </si>
   <si>
-    <t>2012-06-10T03:19:00UTC</t>
-  </si>
-  <si>
-    <t>2013-12-13T00:52:55UTC</t>
-  </si>
-  <si>
-    <t>2015-06-08T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-04-25T19:31:00UTC</t>
-  </si>
-  <si>
-    <t>2011-05-26T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2015-05-25T00:00:00UTC</t>
   </si>
   <si>
-    <t>2017-09-28T22:25:00UTC</t>
-  </si>
-  <si>
     <t>2017-12-04T19:22:11UTC</t>
   </si>
   <si>
-    <t>2016-11-10T17:28:30UTC</t>
-  </si>
-  <si>
     <t>2014-06-28T04:18:27UTC</t>
   </si>
   <si>
@@ -133,55 +133,55 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://articles.orlandosentinel.com/2011-05-26/news/os-controversial-rave-orlando-20110526_1_electric-daisy-carnival-orlando-nightclub-illicit-drugs</t>
+  </si>
+  <si>
     <t>https://lasvegassun.com/vegasdeluxe/2013/dec/04/edc-insomniac-278-million-clark-county-economy-veg/</t>
   </si>
   <si>
+    <t>https://edm.com/news/edc-vegas-and-surreal-sweepstakes-2018</t>
+  </si>
+  <si>
+    <t>https://trance.news/from-las-vegas-india-the-edc-story/</t>
+  </si>
+  <si>
+    <t>https://www.axs.com/the-history-of-electric-daisy-carnival-57026</t>
+  </si>
+  <si>
+    <t>http://www.complex.com/music/2013/12/edc-mexico-2014-announcement</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/entertainment/music/la-et-ms-edc-rotella-20170928-story.html</t>
+  </si>
+  <si>
+    <t>http://www.lasvegassun.com/news/2012/jun/10/high-winds-put-electric-daisy-carnival-hold/</t>
+  </si>
+  <si>
     <t>https://variety.com/2014/film/markets-festivals/sundance-film-review-under-the-electric-sky-2-1201066543/</t>
   </si>
   <si>
-    <t>http://www.lasvegassun.com/news/2012/jun/10/high-winds-put-electric-daisy-carnival-hold/</t>
-  </si>
-  <si>
-    <t>http://www.complex.com/music/2013/12/edc-mexico-2014-announcement</t>
-  </si>
-  <si>
-    <t>https://www.axs.com/the-history-of-electric-daisy-carnival-57026</t>
-  </si>
-  <si>
-    <t>https://edm.com/news/edc-vegas-and-surreal-sweepstakes-2018</t>
-  </si>
-  <si>
-    <t>http://articles.orlandosentinel.com/2011-05-26/news/os-controversial-rave-orlando-20110526_1_electric-daisy-carnival-orlando-nightclub-illicit-drugs</t>
-  </si>
-  <si>
     <t>https://thump.vice.com/en_ca/article/edc-ny-2015-recap-dance-musics-biggest-parking-lot-rave</t>
   </si>
   <si>
-    <t>https://www.latimes.com/entertainment/music/la-et-ms-edc-rotella-20170928-story.html</t>
-  </si>
-  <si>
     <t>http://www.orlandosentinel.com/entertainment/arts-and-theater/os-electric-daisy-carnival-edc-orlando-20151106-story.html</t>
   </si>
   <si>
-    <t>https://trance.news/from-las-vegas-india-the-edc-story/</t>
-  </si>
-  <si>
     <t>https://www.youredm.com/2014/06/27/edc-lv-sets-new-record-largest-stage-ever-assembled-north-america/</t>
   </si>
   <si>
+    <t>https://lasvegas.electricdaisycarnival.com/experience/stages/</t>
+  </si>
+  <si>
+    <t>https://lasvegas.electricdaisycarnival.com/experience/the-world-of-edc/</t>
+  </si>
+  <si>
     <t>https://wintermusicconference.com/idma/</t>
   </si>
   <si>
     <t>https://www.insomniac.com/media/edc-orlando-returns-florida-november-2017</t>
   </si>
   <si>
-    <t>https://lasvegas.electricdaisycarnival.com/experience/stages/</t>
-  </si>
-  <si>
     <t>http://www.edmlounge.com/blog/2012/4/20/official-edmlounge-edc-new-york-preview.html</t>
-  </si>
-  <si>
-    <t>https://lasvegas.electricdaisycarnival.com/experience/the-world-of-edc/</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>6181</v>
+        <v>5258</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>6230</v>
+        <v>6181</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -617,7 +617,7 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>5639</v>
+        <v>7784</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -634,7 +634,7 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>6190</v>
+        <v>7253</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -668,7 +668,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>7784</v>
+        <v>6190</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -685,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>5258</v>
+        <v>7575</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -702,7 +702,7 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>6718</v>
+        <v>5639</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>7575</v>
+        <v>6230</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -736,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>7642</v>
+        <v>6718</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>7253</v>
+        <v>7642</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -835,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -852,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
